--- a/it.xlsx
+++ b/it.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_mesDocs\_git\trouble_shooting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Translation - Share\bbaudry\troubleshooting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" tabRatio="799" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="all_it" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,18 @@
     <sheet name="stability_it" sheetId="8" r:id="rId8"/>
     <sheet name="wifi-lan_it" sheetId="9" r:id="rId9"/>
     <sheet name="tv_it" sheetId="10" r:id="rId10"/>
-    <sheet name="old_tv" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="all_it" localSheetId="0">all_it!$A$1:$H$16</definedName>
+    <definedName name="all_it" localSheetId="0">all_it!$A$1:$I$14</definedName>
     <definedName name="cables_it" localSheetId="1">cables_it!$A$1:$H$10</definedName>
     <definedName name="collection_it" localSheetId="2">collection!$A$1:$H$17</definedName>
     <definedName name="equipment_it" localSheetId="3">equipment!$A$1:$H$24</definedName>
     <definedName name="escalation_it" localSheetId="4">escalation!$A$1:$H$18</definedName>
-    <definedName name="installation_activation_it" localSheetId="5">'installation-activation_it'!$A$1:$H$16</definedName>
-    <definedName name="nointernet_it" localSheetId="6">nointernet_it!$A$1:$H$37</definedName>
-    <definedName name="salttv_it" localSheetId="10">old_tv!$A$1:$H$28</definedName>
-    <definedName name="stability_it" localSheetId="7">stability_it!$A$1:$H$24</definedName>
-    <definedName name="wifi_lan_it" localSheetId="8">'wifi-lan_it'!$A$1:$H$31</definedName>
+    <definedName name="installation_activation_it" localSheetId="5">'installation-activation_it'!$A$1:$H$15</definedName>
+    <definedName name="nointernet_it" localSheetId="6">nointernet_it!$A$1:$H$34</definedName>
+    <definedName name="salttv_en" localSheetId="9">tv_it!$A$1:$H$1</definedName>
+    <definedName name="stability_it" localSheetId="7">stability_it!$A$1:$H$20</definedName>
+    <definedName name="wifi_lan_it" localSheetId="8">'wifi-lan_it'!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -145,8 +144,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="salttv_it" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="C:\_mesDocs\_git\qook\troubleshooting\locales\it-IT\salttv_it.txt">
+  <connection id="8" name="salttv_en" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\_mesDocs\_git\ts-tool-assets\locales\en-GB\salttv_en.txt">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -191,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="860">
   <si>
     <t>FLAG</t>
   </si>
@@ -1804,712 +1803,1008 @@
     <t>$flow.stability._ShareAdviceOptimalWifi</t>
   </si>
   <si>
-    <t>Leggere i consigli relativi al WiFi ottimale e inviare un link al cliente.</t>
-  </si>
-  <si>
     <t>Mi permetta di condividere con lei alcune delle procedure migliori per configurare il WiFi in modo ottimale</t>
   </si>
   <si>
     <t>$flow.stability._TestSpeed</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiedere al cliente di fare/utilizzare/ricominciare di nuovo ciò che lo ha portato a chiamarci&lt;N&gt;&lt;T&gt;- Blocco app streaming&lt;N&gt;&lt;T&gt;- Caricamento lungo della pagina&lt;N&gt;&lt;T&gt;- Ecc.
+    <t>Testiamo ora se si verificano gli stessi problemi di funzionamento</t>
+  </si>
+  <si>
+    <t>$flow.stability._RedoTestWithAnotherDevice</t>
+  </si>
+  <si>
+    <t>Adesso sembra ok</t>
+  </si>
+  <si>
+    <t>Sempre la stessa cosa</t>
+  </si>
+  <si>
+    <t>Non può provare con un altro dispositivo</t>
+  </si>
+  <si>
+    <t>$flow.lan._CreateLanIssueTicket</t>
+  </si>
+  <si>
+    <t>Inviare</t>
+  </si>
+  <si>
+    <t>$flow.lan._RemoveAllCablesConnectedToBox</t>
+  </si>
+  <si>
+    <t>E rifare i test</t>
+  </si>
+  <si>
+    <t>Rimuovere tutti gli altri cavi</t>
+  </si>
+  <si>
+    <t>$flow.lan._SwapEthernetCable</t>
+  </si>
+  <si>
+    <t>Provare con un altro cavo Ethernet</t>
+  </si>
+  <si>
+    <t>$flow.lan.CanCheckWithAppleTVorOtherDevice</t>
+  </si>
+  <si>
+    <t>Se l'Apple TV è diponibile, provare con quella. Se no con un altro apparecchio via LAN.</t>
+  </si>
+  <si>
+    <t>È possibile provare con un altro apparecchio?</t>
+  </si>
+  <si>
+    <t>AppleTV o un altro apparecchio via LAN</t>
+  </si>
+  <si>
+    <t>Nessun altro apparecchio via LAN</t>
+  </si>
+  <si>
+    <t>$flow.lan.ConnectDirectToFiberbox</t>
+  </si>
+  <si>
+    <t>Collegare l'apparecchio via LAN direttamente al box</t>
+  </si>
+  <si>
+    <t>$flow.lan.ConnectedViaSwitch</t>
+  </si>
+  <si>
+    <t>$flow.lan.LanConnectionOK</t>
+  </si>
+  <si>
+    <t>La connessione LAN funziona?</t>
+  </si>
+  <si>
+    <t>$flow.lan._SwapEthernetPort</t>
+  </si>
+  <si>
+    <t>Provare su un'altra porta &lt;b&gt; 1 Ghz&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Provare su un'altra porta Ethernet</t>
+  </si>
+  <si>
+    <t>box/lan/lan</t>
+  </si>
+  <si>
+    <t>$flow.wifi._ConteactDeviceSupport</t>
+  </si>
+  <si>
+    <t>Contattare il supporto tecnico dell'apparecchio</t>
+  </si>
+  <si>
+    <t>$flow.wifi._CreateTicketWifiIssue</t>
+  </si>
+  <si>
+    <t>'- Un ticket [522] sarà generato automaticamente all'avanzamento alla fase successiva.&lt;N&gt;- Non crearne uno manualmente (SuperOffice).&lt;N&gt;- Una copia del contenuto sarà inviata alla tua casella di posta elettronica.&lt;N&gt;&lt;N&gt;Informare che:&lt;N&gt;&lt;T&gt;- un ticket verrà trasmesso al nostro servizio tecnico per un'analisi approfondita.&lt;N&gt;&lt;T&gt;- potremmo contattarlo.&lt;N&gt;&lt;T&gt;- riceverà un feedback appena possibile.&lt;N&gt;&lt;T&gt;- &lt;em&gt;il box deve restare attaccato alla presa di corrente (230V) e collegato (SFP, Fiber, OTO) durante tutta la durata del ticket.&lt;em&gt;'</t>
+  </si>
+  <si>
+    <t>Creazione automatica del ticket [522] in SuperOffice</t>
+  </si>
+  <si>
+    <t>$flow.wifi._ResetWifiParams</t>
+  </si>
+  <si>
+    <t>Forget WiFi sui dispositivi&lt;N&gt;Utilizzare il tool di supporto per i dispositivi se il cliente ha bisogno di aiuto.</t>
+  </si>
+  <si>
+    <t>Ripristinare i parametri WiFi dell'apparecchio alle impostazioni di fabbrica</t>
+  </si>
+  <si>
+    <t>https://salt.ch/device-help/</t>
+  </si>
+  <si>
+    <t>$flow.wifi._RestartDevice</t>
+  </si>
+  <si>
+    <t>Riavviare l'apparecchio</t>
+  </si>
+  <si>
+    <t>$flow.wifi._SwitchOnUsingButton</t>
+  </si>
+  <si>
+    <t>Per X secondi</t>
+  </si>
+  <si>
+    <t>Premere il tasto sul pannello frontale</t>
+  </si>
+  <si>
+    <t>box/box-front-wlan</t>
+  </si>
+  <si>
+    <t>$flow.wifi._SwitchOnWifiFromAdminConsole</t>
+  </si>
+  <si>
+    <t>Aprire il browser internet: digitare l'indirizzo 192.168.1.1.&lt;N&gt;&lt;N&gt;Inserire il nome utente e la password (admin / admin di default).&lt;N&gt;&lt;N&gt;Cambiare la vista da «Standard» a «Expert».&lt;N&gt;&lt;N&gt;Andare in Vista combinata sotto WLAN.&lt;N&gt;&lt;N&gt;Assicurarsi che ON appaia sotto la rete della banda connessa accanto al campo Attivare SSID.</t>
+  </si>
+  <si>
+    <t>Attivare le 2 WiFi dall'admin del Box</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/knowledge/technical/modem_router/turn_on_off_wifi_in_the_admin_console</t>
+  </si>
+  <si>
+    <t>$flow.wifi.CanConnectToBoxWithLAN</t>
+  </si>
+  <si>
+    <t>È possibile collegare un apparecchio via LAN?</t>
+  </si>
+  <si>
+    <t>$flow.wifi.ErrorIconOnWifiIcon</t>
+  </si>
+  <si>
+    <t>Errore sull'icona WiFi dell'apparecchio?</t>
+  </si>
+  <si>
+    <t>$flow.wifi.WifiButtonBroken</t>
+  </si>
+  <si>
+    <t>(quando lo si preme, non torna alla sua posizione originale)</t>
+  </si>
+  <si>
+    <t>Il tasto della WiFi è rotto?</t>
+  </si>
+  <si>
+    <t>$flow.wifi.WifiOnInDashboard</t>
+  </si>
+  <si>
+    <t>Le 2 WiFi sono verdi nel dashboard ?</t>
+  </si>
+  <si>
+    <t>vti/WifiOnInDashboard-it</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/knowledge/technical/modem_router/check_in_vti_if_wifi_is_active</t>
+  </si>
+  <si>
+    <t>$flow.wifi.WiFiPasswordAccepted</t>
+  </si>
+  <si>
+    <t>La password WiFi è accettata?</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/customer-process/configure/admin_console/change_wifi_name_and_password</t>
+  </si>
+  <si>
+    <t>$flow.wifi.WifiVisibleByAppleTV</t>
+  </si>
+  <si>
+    <t>(Staccare prima il cavo LAN dell'Apple TV)&lt;N&gt;&lt;N&gt;Apple TV -&gt; Impostazioni -&gt; Rete -&gt; Wi-Fi&lt;N&gt;Scegliere il nome di una rete Wi-Fi compatibile per connettersi.</t>
+  </si>
+  <si>
+    <t>La WiFi è visibile dall'Apple TV ?</t>
+  </si>
+  <si>
+    <t>$flow.wifi.WifiVisibleOnDevice</t>
+  </si>
+  <si>
+    <t>La WiFi è visibile sull'apparecchio?</t>
+  </si>
+  <si>
+    <t>$flow.wifi._MoveCloseUnplugRepeater</t>
+  </si>
+  <si>
+    <t>box/getClose</t>
+  </si>
+  <si>
+    <t>$flow.lan.TestWithAppleTV</t>
+  </si>
+  <si>
+    <t>$flow.wifi._ConnectWiFIToFiveGH</t>
+  </si>
+  <si>
+    <t>Aiutare il cliente a collegare il suo dispositivo alla rete WiFi 5Ghz&lt;N&gt;Cliccare sul link sottostante per trovare i passi da seguire a seconda del dispositivo</t>
+  </si>
+  <si>
+    <t>Si colleghi alla rete WiFi 5Ghz del Box</t>
+  </si>
+  <si>
+    <t>https://www.salt.ch/device-help/?page=topic/wifi/wifi-configuration/device</t>
+  </si>
+  <si>
+    <t>$flow.wifi._ConnectWiFIToTwoDotFourGH</t>
+  </si>
+  <si>
+    <t>Aiutare il cliente a collegare il suo dispositivo alla rete WiFi 2.4Ghz&lt;N&gt;Cliccare sul link sottostante per trovare i passi da seguire a seconda del dispositivo</t>
+  </si>
+  <si>
+    <t>Si colleghi alla rete WiFi 2.4Ghz del Box</t>
+  </si>
+  <si>
+    <t>$flow.wifi.WhyCannotConnectWithLan</t>
+  </si>
+  <si>
+    <t>Perché non può collegarsi alla LAN?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non ha dispositivi in LAN </t>
+  </si>
+  <si>
+    <t>La LAN non funziona</t>
+  </si>
+  <si>
+    <t>$flow.lan._TestWithAnotherLanDevice</t>
+  </si>
+  <si>
+    <t>(non direttamente al box)</t>
+  </si>
+  <si>
+    <t>Avvicinarsi alla scatola e assicurarsi di non essere nel raggio di un ripetitore WiFi</t>
+  </si>
+  <si>
+    <t>Vicino al box e nessun ripetitore</t>
+  </si>
+  <si>
+    <t>Non è possibile avvicinarsi o scollegare il ripetitore</t>
+  </si>
+  <si>
+    <t>$flow.wifi._CanSeeGoogle</t>
+  </si>
+  <si>
+    <t>Chiedere al cliente di aprire un browser e di andare su google.com&lt;N&gt;Se riesce ad accedervi non verrà creato alcun ticket &lt;b&gt;a meno che non indichi l'URL o l'app&lt;b&gt; che ancora non funziona.</t>
+  </si>
+  <si>
+    <t>Testare Google e altri URL sul browser del dispositivo</t>
+  </si>
+  <si>
+    <t>Può andare su Google</t>
+  </si>
+  <si>
+    <t>Nessuna connessione</t>
+  </si>
+  <si>
+    <t>Può andare su Google ma non su altri URL</t>
+  </si>
+  <si>
+    <t>$flow.lan.OkToTryWifi</t>
+  </si>
+  <si>
+    <t>box/lan/switch_no</t>
+  </si>
+  <si>
+    <t>box/lan/lan_ok</t>
+  </si>
+  <si>
+    <t>Se il box è collegato a una presa multipla, attaccarlo direttamente alla presa murale.&lt;N&gt;Provare con un'altra presa murale</t>
+  </si>
+  <si>
+    <t>Controllare l'attacco della presa elettrica</t>
+  </si>
+  <si>
+    <t>&lt;T&gt;- Numero OTO corretto sulla presa&lt;N&gt;&lt;T&gt; - Numero corretto della porta OTO utilizzata&lt;N&gt;&lt;T&gt; - Cavo in fibra connesso con la levetta blu (verso l'alto)&lt;N&gt;&lt;T&gt; - Cavo di alimentazione collegato.</t>
+  </si>
+  <si>
+    <t>L'installazione è OK?</t>
+  </si>
+  <si>
+    <t>box/blueleverup</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/knowledge/technical/modem_router/checking_the_fiber_box_connection|https://youtube.com/watch?v=z9aL-arjRJw&amp;t=105s</t>
+  </si>
+  <si>
+    <t>In quale fascia oraria avviene questo?</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._StoreCustomersSetup</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._AppleTVSoundSetup</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._SaltTVDetails</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._IssueDescription</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._HowFerquent</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound.IsSameIssueWithOtherApps</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.WichRemote</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.DoesAppleTVLedBlinks</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.siri._RechargeSiriRemote</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.siri._GetCloseToAppleTV</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.siri._PressMenuAndPlus</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.siri._AdviceOnSiriRemoteUSage</t>
+  </si>
+  <si>
+    <t>https://fiber.salt.ch/fiber/equipment/apple-tv/guide</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._EnsureAppleTVInVisualRangeOfRemote</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.DoesRedLedBlinksOnRemoteWhenPressed</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._MakeSureBatteriesCoerrectlyInstalled</t>
+  </si>
+  <si>
+    <t>tv/salttv_remote/batteries</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.CanReplaceBatteries</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._ReplaceBatteriesThenCallUsBack</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.IsAppleTVFourthGen</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/HT200008</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.IsLatestSaltTVAppInstalled</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._SteupSaltTVRemoteWithRegularTV</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.DoesVolumeOnTvChange</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.WasThePurchaseDoneLessThanOnYearAgo</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._GoToStoreToReplace</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._NeedToBuyOneNew</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware.IsAppleTVvisibleOnTVScreen</t>
+  </si>
+  <si>
+    <t>tv/tvhomescreen</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware._MakeSurePowerCableWellPlugged</t>
+  </si>
+  <si>
+    <t>tv/powercablepluggedin</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware.WhiteLightLids</t>
+  </si>
+  <si>
+    <t>tv/statusled</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-gb/guide/tv/atvba38a4135/tvos</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware._CheckHDMIcnx</t>
+  </si>
+  <si>
+    <t>tv/hdmiconnection</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UFBwdVRnc-E?t=270</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware._RepairProcess</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/de/customer-process/use_trouble/replacement_and_repair/repair_equipment_fiberbox_tvbox_accessories#salt-fiber-box-fiber-zubeh%C3%B6r-und-apple-tv-4k</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.IsSaltIconVisibleOnAppleTV</t>
+  </si>
+  <si>
+    <t>tv/salttvicon</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._OpenAppleStore</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.CanSeeSaltTVOnAppleStore</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.HasAppleId</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.CanCreateAppleAccount</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.HasSwissAppleID</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.WantToChangeToSwiss</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-us/HT201389</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._HowToChangeAppleIDtoSwiss</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._InstallSaltTV</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/de/customer-process/configure/manage_appletv_salttv/salttv/salttv_download_tipps_and_tricks</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._LogInWithSwissAppleID</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._CreateAppleIDorBypass</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._ResetAppleTV</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-gb/HT202118</t>
+  </si>
+  <si>
+    <t>$flow.tv.app._QuitAndRelaunchSaltTV</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-gb/guide/tv/atvbbcec4f4e/tvos</t>
+  </si>
+  <si>
+    <t>$flow.tv.app.ProblemSolved</t>
+  </si>
+  <si>
+    <t>$flow.tv.app._CheckIfAppNeedsUpdate</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-gb/guide/tv/atvb7e0a4ea5/tvos</t>
+  </si>
+  <si>
+    <t>$flow.tv.app._RebootAppleTV</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-us/HT201836</t>
+  </si>
+  <si>
+    <t>$flow.tv.app._CheckIfSaltTVNeedsUpdate</t>
+  </si>
+  <si>
+    <t>tv/updatesalttv</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/de/customer-process/configure/manage_appletv_salttv/salttv/update_salt_tv_app</t>
+  </si>
+  <si>
+    <t>$flow.tv.app.WhatAppleTVcnxType</t>
+  </si>
+  <si>
+    <t>$flow.tv.app.IsIssueWithOtherApps</t>
+  </si>
+  <si>
+    <t>$flow.tv.app.CanCheckWithLan</t>
+  </si>
+  <si>
+    <t>$flow.tv.services.IsMessageInvitingToContactCC</t>
+  </si>
+  <si>
+    <t>$flow.tv.services.IsTVServicesActiveVTI</t>
+  </si>
+  <si>
+    <t>tv/activetvservice</t>
+  </si>
+  <si>
+    <t>$flow.tv.services.IsBasicTvPackageVisible</t>
+  </si>
+  <si>
+    <t>$flow.tv.services.IsBarringVisible</t>
+  </si>
+  <si>
+    <t>$flow.tv.WhatIStheTVIssue</t>
+  </si>
+  <si>
+    <t>$flow.tv._OpenSaltTVApp</t>
+  </si>
+  <si>
+    <t>$flow.tv.ChekSaltTVKNownBugs</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/de/bug/services/salt_tv_known_bugs</t>
+  </si>
+  <si>
+    <t>$flow.tv.CanExploreMenu</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>$flow.tv._InformSaltIsFixing</t>
+  </si>
+  <si>
+    <t>$flow.tv._CreateSOTicketSaltTV</t>
+  </si>
+  <si>
+    <t>&lt;N&gt;&lt;T&gt;-Marca e modello del televisore&lt;N&gt;&lt;T&gt;-Marca e modello del sistema audio</t>
+  </si>
+  <si>
+    <t>&lt;N&gt;&lt;T&gt;-Canali interessati&lt;N&gt;&lt;T&gt;-Nome programma&lt;N&gt;&lt;T&gt;-Ora e data</t>
+  </si>
+  <si>
+    <t>Qual è esattamente il difetto audio che il cliente riscontra</t>
+  </si>
+  <si>
+    <t>Chiedere se il problema appare su tutti i canali o su uno solo. Sempre o ogni tanto, ecc…</t>
+  </si>
+  <si>
+    <t>Es.: con iTunes, Spotify, giochi, ecc...</t>
+  </si>
+  <si>
+    <t>Aprire la pagina di supporto Apple&lt;N&gt;Controllare se l'aspetto e il numero del modello corrispondono a quello dell'Apple TV 4K o dell'Apple TV HD</t>
+  </si>
+  <si>
+    <t>Aprire la pagine di Salt.&lt;N&gt;Verificare le funzionalità con il cliente&lt;N&gt;Spedire il link della guida di Apple TV di Salt Home</t>
+  </si>
+  <si>
+    <t>Proviamo a fare un test con l'Apple TV via LAN</t>
+  </si>
+  <si>
+    <t>Non è possibile usare l'Apple TV via LAN</t>
+  </si>
+  <si>
+    <t>Se il cliente ha un altro dispositivo che può collegare alla rete LAN, farlo collegare direttamente al box e alla connessione Ethernet come prima.</t>
+  </si>
+  <si>
+    <t>Proviamo con un altro dispositivo in LAN</t>
+  </si>
+  <si>
+    <t>Testiamo</t>
+  </si>
+  <si>
+    <t>Nessun altro dispositivo collegato alla LAN</t>
+  </si>
+  <si>
+    <t>customer/google_wifi</t>
+  </si>
+  <si>
+    <t>$flow.lan.LetsCheckYourWiFi</t>
+  </si>
+  <si>
+    <t>Nella maggior parte dei casi il cliente ha dispositivi WiFi e sarà molto utile saperlo.&lt;N&gt; Basta chiedere al cliente di connettersi al WiFi con un dispositivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ora proviamo a vedere se funziona con il WiFi </t>
+  </si>
+  <si>
+    <t>Non funziona nemmeno col WiFi</t>
+  </si>
+  <si>
+    <t>Non ha testato il WiFi</t>
+  </si>
+  <si>
+    <t>Chiedere al cliente di aprire un browser su un dispositivo collegato via WiFi e provare a vedere se google.com si apre</t>
+  </si>
+  <si>
+    <t>La connessione LAN funziona, testiamo il WiFi</t>
+  </si>
+  <si>
+    <t>Anche il WiFi funziona</t>
+  </si>
+  <si>
+    <t>Il WiFi funziona</t>
+  </si>
+  <si>
+    <t>Non ha funzionato</t>
+  </si>
+  <si>
+    <t>Verificare su google.com cercando qualcosa come "salt" per vedere se appaiono dei risultati.&lt;N&gt;&lt;N&gt;Se il cliente s'intende di computer, chiedergli anche di ricontrollare se il sistema operativo mostra che la connessione Ethernet è ok.</t>
+  </si>
+  <si>
+    <t>Chiedere al cliente di fare/usare/avviare di nuovo ciò che lo ha portato a chiamarci&lt;N&gt;&lt;T&gt;- Congelamento di un'applicazione in streaming&lt;N&gt;&lt;T&gt;- Caricamento lungo della pagina&lt;N&gt;&lt;T&gt;- Ecc.</t>
+  </si>
+  <si>
+    <t>Testare l'esperienza della velocità con un altro dispositivo</t>
+  </si>
+  <si>
+    <t>Stesso problema</t>
+  </si>
+  <si>
+    <t>Adesso funziona bene</t>
+  </si>
+  <si>
+    <t>La classica schermata iniziale, contenente le icone delle applicazioni preinstallate.&lt;N&gt;(come l'App Store)</t>
+  </si>
+  <si>
+    <t>Portare con sé la prova d'acquisto e andare in un Salt Store. 
+Il telecomando sarà sostituito.</t>
+  </si>
+  <si>
+    <t>Assicurarsi che il cavo di alimentazione sia ben inserito.&lt;N&gt;Cambiare la presa a muro se necessario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se alimentato correttamente il LED è fisso e bianco </t>
+  </si>
+  <si>
+    <t>Verificare che il numero della porta HDMI fisica corrisponda al tipo &lt;Q&gt;INPUT/SOURCE&lt;Q&gt; selezionato sul televisore.&lt;N&gt;Sostituire il cavo HDMI se possibile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incoraggiare il cliente a effettuare la registrazione della riparazione online
 </t>
   </si>
   <si>
-    <t>Testiamo ora se si verificano gli stessi problemi di funzionamento</t>
-  </si>
-  <si>
-    <t>$flow.stability._RedoTestWithAnotherDevice</t>
-  </si>
-  <si>
-    <t>Testiamo l'esperienza della velocità con un altro dispositivo</t>
-  </si>
-  <si>
-    <t>Adesso sembra ok</t>
-  </si>
-  <si>
-    <t>Sempre la stessa cosa</t>
-  </si>
-  <si>
-    <t>Non può provare con un altro dispositivo</t>
-  </si>
-  <si>
-    <t>$flow.lan._CreateLanIssueTicket</t>
-  </si>
-  <si>
-    <t>Inviare</t>
-  </si>
-  <si>
-    <t>$flow.lan._RemoveAllCablesConnectedToBox</t>
-  </si>
-  <si>
-    <t>E rifare i test</t>
-  </si>
-  <si>
-    <t>Rimuovere tutti gli altri cavi</t>
-  </si>
-  <si>
-    <t>$flow.lan._SwapEthernetCable</t>
-  </si>
-  <si>
-    <t>Provare con un altro cavo Ethernet</t>
-  </si>
-  <si>
-    <t>$flow.lan.CanCheckWithAppleTVorOtherDevice</t>
-  </si>
-  <si>
-    <t>Se l'Apple TV è diponibile, provare con quella. Se no con un altro apparecchio via LAN.</t>
-  </si>
-  <si>
-    <t>È possibile provare con un altro apparecchio?</t>
-  </si>
-  <si>
-    <t>AppleTV o un altro apparecchio via LAN</t>
-  </si>
-  <si>
-    <t>Nessun altro apparecchio via LAN</t>
-  </si>
-  <si>
-    <t>$flow.lan.ConnectDirectToFiberbox</t>
-  </si>
-  <si>
-    <t>Collegare l'apparecchio via LAN direttamente al box</t>
-  </si>
-  <si>
-    <t>$flow.lan.ConnectedViaSwitch</t>
-  </si>
-  <si>
-    <t>$flow.lan.LanConnectionOK</t>
-  </si>
-  <si>
-    <t>La connessione LAN funziona?</t>
-  </si>
-  <si>
-    <t>$flow.lan._SwapEthernetPort</t>
-  </si>
-  <si>
-    <t>Provare su un'altra porta &lt;b&gt; 1 Ghz&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Provare su un'altra porta Ethernet</t>
-  </si>
-  <si>
-    <t>box/lan/lan</t>
-  </si>
-  <si>
-    <t>$flow.wifi._ConteactDeviceSupport</t>
-  </si>
-  <si>
-    <t>Contattare il supporto tecnico dell'apparecchio</t>
-  </si>
-  <si>
-    <t>$flow.wifi._CreateTicketWifiIssue</t>
-  </si>
-  <si>
-    <t>'- Un ticket [522] sarà generato automaticamente all'avanzamento alla fase successiva.&lt;N&gt;- Non crearne uno manualmente (SuperOffice).&lt;N&gt;- Una copia del contenuto sarà inviata alla tua casella di posta elettronica.&lt;N&gt;&lt;N&gt;Informare che:&lt;N&gt;&lt;T&gt;- un ticket verrà trasmesso al nostro servizio tecnico per un'analisi approfondita.&lt;N&gt;&lt;T&gt;- potremmo contattarlo.&lt;N&gt;&lt;T&gt;- riceverà un feedback appena possibile.&lt;N&gt;&lt;T&gt;- &lt;em&gt;il box deve restare attaccato alla presa di corrente (230V) e collegato (SFP, Fiber, OTO) durante tutta la durata del ticket.&lt;em&gt;'</t>
-  </si>
-  <si>
-    <t>Creazione automatica del ticket [522] in SuperOffice</t>
-  </si>
-  <si>
-    <t>$flow.wifi._ResetWifiParams</t>
-  </si>
-  <si>
-    <t>Forget WiFi sui dispositivi&lt;N&gt;Utilizzare il tool di supporto per i dispositivi se il cliente ha bisogno di aiuto.</t>
-  </si>
-  <si>
-    <t>Ripristinare i parametri WiFi dell'apparecchio alle impostazioni di fabbrica</t>
-  </si>
-  <si>
-    <t>https://salt.ch/device-help/</t>
-  </si>
-  <si>
-    <t>$flow.wifi._RestartDevice</t>
-  </si>
-  <si>
-    <t>Riavviare l'apparecchio</t>
-  </si>
-  <si>
-    <t>$flow.wifi._SwitchOnUsingButton</t>
-  </si>
-  <si>
-    <t>Per X secondi</t>
-  </si>
-  <si>
-    <t>Premere il tasto sul pannello frontale</t>
-  </si>
-  <si>
-    <t>box/box-front-wlan</t>
-  </si>
-  <si>
-    <t>$flow.wifi._SwitchOnWifiFromAdminConsole</t>
-  </si>
-  <si>
-    <t>Aprire il browser internet: digitare l'indirizzo 192.168.1.1.&lt;N&gt;&lt;N&gt;Inserire il nome utente e la password (admin / admin di default).&lt;N&gt;&lt;N&gt;Cambiare la vista da «Standard» a «Expert».&lt;N&gt;&lt;N&gt;Andare in Vista combinata sotto WLAN.&lt;N&gt;&lt;N&gt;Assicurarsi che ON appaia sotto la rete della banda connessa accanto al campo Attivare SSID.</t>
-  </si>
-  <si>
-    <t>Attivare le 2 WiFi dall'admin del Box</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/knowledge/technical/modem_router/turn_on_off_wifi_in_the_admin_console</t>
-  </si>
-  <si>
-    <t>$flow.wifi.CanConnectToBoxWithLAN</t>
-  </si>
-  <si>
-    <t>È possibile collegare un apparecchio via LAN?</t>
-  </si>
-  <si>
-    <t>$flow.wifi.ErrorIconOnWifiIcon</t>
-  </si>
-  <si>
-    <t>Errore sull'icona WiFi dell'apparecchio?</t>
-  </si>
-  <si>
-    <t>$flow.wifi.WifiButtonBroken</t>
-  </si>
-  <si>
-    <t>(quando lo si preme, non torna alla sua posizione originale)</t>
-  </si>
-  <si>
-    <t>Il tasto della WiFi è rotto?</t>
-  </si>
-  <si>
-    <t>$flow.wifi.WifiOnInDashboard</t>
-  </si>
-  <si>
-    <t>Le 2 WiFi sono verdi nel dashboard ?</t>
-  </si>
-  <si>
-    <t>vti/WifiOnInDashboard-it</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/knowledge/technical/modem_router/check_in_vti_if_wifi_is_active</t>
-  </si>
-  <si>
-    <t>$flow.wifi.WiFiPasswordAccepted</t>
-  </si>
-  <si>
-    <t>La password WiFi è accettata?</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/customer-process/configure/admin_console/change_wifi_name_and_password</t>
-  </si>
-  <si>
-    <t>$flow.wifi.WifiVisibleByAppleTV</t>
-  </si>
-  <si>
-    <t>(Staccare prima il cavo LAN dell'Apple TV)&lt;N&gt;&lt;N&gt;Apple TV -&gt; Impostazioni -&gt; Rete -&gt; Wi-Fi&lt;N&gt;Scegliere il nome di una rete Wi-Fi compatibile per connettersi.</t>
-  </si>
-  <si>
-    <t>La WiFi è visibile dall'Apple TV ?</t>
-  </si>
-  <si>
-    <t>$flow.wifi.WifiVisibleOnDevice</t>
-  </si>
-  <si>
-    <t>La WiFi è visibile sull'apparecchio?</t>
-  </si>
-  <si>
-    <t>$flow.wifi._MoveCloseUnplugRepeater</t>
-  </si>
-  <si>
-    <t>box/getClose</t>
-  </si>
-  <si>
-    <t>$flow.lan.TestWithAppleTV</t>
-  </si>
-  <si>
-    <t>Testare con l'Apple TV via LAN</t>
-  </si>
-  <si>
-    <t>$flow.wifi._ConnectWiFIToFiveGH</t>
-  </si>
-  <si>
-    <t>Aiutare il cliente a collegare il suo dispositivo alla rete WiFi 5Ghz&lt;N&gt;Cliccare sul link sottostante per trovare i passi da seguire a seconda del dispositivo</t>
-  </si>
-  <si>
-    <t>Si colleghi alla rete WiFi 5Ghz del Box</t>
-  </si>
-  <si>
-    <t>https://www.salt.ch/device-help/?page=topic/wifi/wifi-configuration/device</t>
-  </si>
-  <si>
-    <t>$flow.wifi._ConnectWiFIToTwoDotFourGH</t>
-  </si>
-  <si>
-    <t>Aiutare il cliente a collegare il suo dispositivo alla rete WiFi 2.4Ghz&lt;N&gt;Cliccare sul link sottostante per trovare i passi da seguire a seconda del dispositivo</t>
-  </si>
-  <si>
-    <t>Si colleghi alla rete WiFi 2.4Ghz del Box</t>
-  </si>
-  <si>
-    <t>$flow.wifi.WhyCannotConnectWithLan</t>
-  </si>
-  <si>
-    <t>Perché non può collegarsi alla LAN?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non ha dispositivi in LAN </t>
-  </si>
-  <si>
-    <t>La LAN non funziona</t>
-  </si>
-  <si>
-    <t>$flow.lan._TestWithAnotherLanDevice</t>
-  </si>
-  <si>
-    <t>Provare con un altro dispositivo in LAN</t>
-  </si>
-  <si>
-    <t>(non direttamente al box)</t>
-  </si>
-  <si>
-    <t>Avvicinarsi alla scatola e assicurarsi di non essere nel raggio di un ripetitore WiFi</t>
-  </si>
-  <si>
-    <t>Vicino al box e nessun ripetitore</t>
-  </si>
-  <si>
-    <t>Non è possibile avvicinarsi o scollegare il ripetitore</t>
-  </si>
-  <si>
-    <t>$flow.wifi._CanSeeGoogle</t>
-  </si>
-  <si>
-    <t>Chiedere al cliente di aprire un browser e di andare su google.com&lt;N&gt;Se riesce ad accedervi non verrà creato alcun ticket &lt;b&gt;a meno che non indichi l'URL o l'app&lt;b&gt; che ancora non funziona.</t>
-  </si>
-  <si>
-    <t>Testare Google e altri URL sul browser del dispositivo</t>
-  </si>
-  <si>
-    <t>Può andare su Google</t>
-  </si>
-  <si>
-    <t>Nessuna connessione</t>
-  </si>
-  <si>
-    <t>Può andare su Google ma non su altri URL</t>
-  </si>
-  <si>
-    <t>$flow.lan.OkToTryWifi</t>
-  </si>
-  <si>
-    <t>Nella maggior parte dei casi il cliente ha dispositivi WiFi e sarà molto utile provare.&lt;N&gt;In altri casi, il cliente non ha un dispositivo WiFi o afferma che funziona bene con il WiFi: selezionare NO, quindi verrà creato un ticket LAN ISSUE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ora proviamo a vedere se funziona su WiFi
+    <t>Digitare Salt nel campo di ricerca</t>
+  </si>
+  <si>
+    <t>Prendetevi del tempo con il cliente per aiutarlo a creare l'ID Apple.&lt;N&gt;Assicuratevi che scelga la Svizzera come paese.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un AppleID creato selezionando un paese diverso dalla Svizzera non consente di scaricare Salt TV. </t>
+  </si>
+  <si>
+    <t>Il cliente può sempre cambiare il proprio paese se necessario in un secondo momento.&lt;N&gt;Leggere "Cosa fare prima di cambiare il proprio paese o regione" sul link sottostante per conoscere le condizioni per cambiare la lingua di un Apple ID</t>
+  </si>
+  <si>
+    <t>Ci sono diversi modi per cambiare la lingua (su iPhone, iPad, iPod touch, un computer Mac o una pagina web ApplerID).&lt;N&gt; Pagina web dell'Apple ID:&lt;N&gt;Su un browser&lt;N&gt;&lt;T&gt;1. Accedere a https://appleid.apple.com/ con il proprio ID Apple&lt;N&gt;&lt;T&gt;2. Scorrere fino alla sezione Account, quindi fare clic su Modifica.&lt;N&gt;&lt;T&gt;Dal menu Paese/Regione, selezionare il nuovo paese o la nuova regione.&lt;N&gt;&lt;T&gt;4. Quando viene chiesto se si desidera cambiare paese o regione, fare clic su "Continua per aggiornare". &lt;N&gt;&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Nel documento Qoof troverete i tutorial di YouTube per i clienti con o senza Apple ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Selezionare SVIZZERA come paese.&lt;N&gt;2. Collegare l'Apple TV al Fiber Box per abilitare l'accesso &lt;Q&gt;Nessun accesso&lt;QR&gt;.&lt;N&gt;3. Saltare il passo di inserimento dell'ID Apple.&lt;N&gt;4. Selezionare Salt come fornitore di servizi TV.
 </t>
   </si>
   <si>
-    <t>Ok, andiamo</t>
-  </si>
-  <si>
-    <t>No, non può</t>
-  </si>
-  <si>
-    <t>box/lan/switch_no</t>
-  </si>
-  <si>
-    <t>box/lan/lan_ok</t>
-  </si>
-  <si>
-    <t>Se il box è collegato a una presa multipla, attaccarlo direttamente alla presa murale.&lt;N&gt;Provare con un'altra presa murale</t>
-  </si>
-  <si>
-    <t>Controllare l'attacco della presa elettrica</t>
-  </si>
-  <si>
-    <t>&lt;T&gt;- Numero OTO corretto sulla presa&lt;N&gt;&lt;T&gt; - Numero corretto della porta OTO utilizzata&lt;N&gt;&lt;T&gt; - Cavo in fibra connesso con la levetta blu (verso l'alto)&lt;N&gt;&lt;T&gt; - Cavo di alimentazione collegato.</t>
-  </si>
-  <si>
-    <t>L'installazione è OK?</t>
-  </si>
-  <si>
-    <t>box/blueleverup</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/knowledge/technical/modem_router/checking_the_fiber_box_connection|https://youtube.com/watch?v=z9aL-arjRJw&amp;t=105s</t>
-  </si>
-  <si>
-    <t>In quale fascia oraria avviene questo?</t>
-  </si>
-  <si>
-    <t>In:&lt;N&gt;&lt;T&gt;- VTI -&gt; Gestione dell'abbonamento -&gt; Healthcheck -&gt; TV&lt;N&gt;&lt;N&gt;cliccare su &lt;Q&gt;Attivare l'utente TV &lt;Q&gt;</t>
-  </si>
-  <si>
-    <t>Attivare i servizi TV in VTI</t>
-  </si>
-  <si>
-    <t>tv/activatetvuserfr</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/fr/customer-process/use_trouble/tv/salttv_automatic_deactivation_after_non_use</t>
-  </si>
-  <si>
-    <t>Verificare che il numero di porta fisica HDMI corrisponda al tipo &lt;Q&gt;INPUT/SOURCE&lt;Q&gt; selezionato sul televisore.&lt;N&gt;Sostituire il cavo HDMI se possibile.</t>
-  </si>
-  <si>
-    <t>Verificare la connessione del cavo HDMI</t>
-  </si>
-  <si>
-    <t>tv/hdmiconnection</t>
-  </si>
-  <si>
-    <t>Connessione OK</t>
-  </si>
-  <si>
-    <t>https://youtu.be/z9aL-arjRJw?t=267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se è necessario un aggiornamento, aggiornare il software dell'Apple TV.&lt;N&gt;&lt;T&gt;- Andare in &lt;Q&gt;Impostazioni - Sistema - Aggiornamenti software&lt;Q&gt;&lt;N&gt;&lt;T&gt;- Selezionare &lt;Q&gt;Aggiorna software&lt;Q&gt; </t>
-  </si>
-  <si>
-    <t>Il software Apple TV 4K è aggiornato?</t>
-  </si>
-  <si>
-    <t>Aggiornamento</t>
-  </si>
-  <si>
-    <t>https://support.apple.com/it-it/guide/tv/atvb7e0a4ea5/tvos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se è necessario un aggiornamento, aggiornare l'app Salt TV.&lt;N&gt;&lt;N&gt;Consigliare al cliente di impostare gli aggiornamenti automatici dell'applicazione.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'app Salt TV è all'ultima versione?  </t>
-  </si>
-  <si>
-    <t>tv/updatesalttv</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/fr/customer-process/configure/manage_appletv_salttv/salttv/update_salt_tv_app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificare se un incidente generale di Salt TV o un incidente sul canale specifico è pubblicato su Qoof.&lt;N&gt;Statut &lt;Q&gt;Open&lt;Q&gt; </t>
-  </si>
-  <si>
-    <t>È in corso un bug Salt TV pubblicato su Qoof?</t>
+    <t>Andare su:&lt;N&gt;&lt;T&gt;- Impostazioni&lt;N&gt;&lt;T&gt;- Sistema&lt;N&gt;&lt;T&gt;- Ripristina</t>
+  </si>
+  <si>
+    <t>Premere il pulsante &lt;Q&gt;Home&lt;Q&gt; due volte velocemente.&lt;N&gt;Scorrere a sinistra o a destra sulla superficie Touch del Siri Remote per navigare verso l'app Salt TV.&lt;N&gt;Scorrere sulla superficie Touch del Siri Remote per forzare la chiusura dell'app Salt TV.&lt;N&gt;Premere il pulsante del menu per tornare alla schermata &lt;Q&gt;Home&lt;Q&gt; e riavviare l'app Salt TV.</t>
+  </si>
+  <si>
+    <t>Il cliente conferma che tutti i canali funzionano correttamente?</t>
+  </si>
+  <si>
+    <t>Se è richiesto un aggiornamento, aggiornare Apple TV.&lt;N&gt;&lt;T&gt;- Andare su &lt;Q&gt;Impostazioni - Sistema - Aggiornamenti software&lt;Q&gt;&lt;N&gt;&lt;T&gt;- Selezionare &lt;Q&gt;Aggiorna software&lt;Q&gt;</t>
+  </si>
+  <si>
+    <t>Andare su:&lt;N&gt;&lt;T&gt;- Impostazioni&lt;N&gt;&lt;T&gt;- Sistema&lt;N&gt;&lt;T&gt;- Riavvia.</t>
+  </si>
+  <si>
+    <t>Se è richiesto un aggiornamento, aggiornare l'App di Salt TV.&lt;N&gt;&lt;N&gt;Consigliare al cliente di impostare gli aggiornamenti automatici delle app.</t>
+  </si>
+  <si>
+    <t>Che tipo di connessione ha il cliente?</t>
+  </si>
+  <si>
+    <t>In questo caso, il cliente potrebbe essere bloccato.</t>
+  </si>
+  <si>
+    <t>Andare in:&lt;N&gt;&lt;T&gt;- VTI -&gt; Gestione dell'abbonamento -&gt; Healthcheck -&gt; TV</t>
+  </si>
+  <si>
+    <t>Selezionare telecomando per problemi con: &lt;N&gt;&lt;T&gt;- il Siri Remote&lt;N&gt;&lt;T&gt;- il telecomando Salt TV&lt;N&gt;&lt;N&gt;Selezionare TV per problemi con: &lt;N&gt;&lt;T&gt;- l'AppleTV&lt;N&gt;&lt;T&gt;- l'app Salt TV&lt;N&gt;&lt;T&gt;- i canali &lt;N&gt;&lt;T&gt;- le funzioni &lt;N&gt;&lt;T&gt;- l'installazione&lt;N&gt;&lt;T&gt;- Ecc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare se un incidente generale di Salt TV o un incidente che ha un impatto sul canale specifico è pubblicato su Qoof.&lt;N&gt;Stato &lt;Q&gt;Open&lt;Q&gt;. </t>
+  </si>
+  <si>
+    <t>Problema con un canale = non riesco a vedere un canale&lt;N&gt; Problema di funzionalità = alcune funzionalità dell'applicazione non funzionano</t>
+  </si>
+  <si>
+    <t>Chiudete gentilmente la chiamata. Chiedere scusa per l'inconviente.</t>
+  </si>
+  <si>
+    <t>Un ticket [541] sarà generato automaticamente all'avanzamento al passo successivo. Non crearne uno manualmente (SuperOffice). Una copia del contenuto sarà inviata alla tua casella di posta elettronica.</t>
+  </si>
+  <si>
+    <t>&lt;N&gt;&lt;T&gt;-Uscita audio&lt;N&gt;&lt;T&gt;-Formato audio&lt;N&gt;&lt;T&gt;-Riduci audio suoni intensi&lt;N&gt;&lt;T&gt;-Audio</t>
+  </si>
+  <si>
+    <t>Che configurazione ha il cliente?</t>
+  </si>
+  <si>
+    <t>Com'è configurato il suono dell'Apple TV?</t>
+  </si>
+  <si>
+    <t>Quando e quanto spesso succede?</t>
+  </si>
+  <si>
+    <t>Può darmi maggiori dettagli su come utilizza Salt TV in caso di problemi con il suono?</t>
+  </si>
+  <si>
+    <t>Descriva il problema del suono</t>
+  </si>
+  <si>
+    <t>Il problema del suono si verifica con altre applicazioni dell'Apple TV?</t>
+  </si>
+  <si>
+    <t>Che telecomando è?</t>
+  </si>
+  <si>
+    <t>Collegare il Siri Remote a un cavo elettrico e caricarlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La luce sull'Apple TV box è accesa e le icone sulla schermata si muovono? </t>
+  </si>
+  <si>
+    <t>Avvicinarsi all'Apple TV con il telecomando in mano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collegare il telecomando Siri all'Apple TV&lt;N&gt;Premere contemporaneamente i tasti MENU e + </t>
+  </si>
+  <si>
+    <t>Consigli su come utilizzare il Siri Remote.</t>
+  </si>
+  <si>
+    <t>Assicurarsi che l'Apple TV sia nel campo del telecomando</t>
+  </si>
+  <si>
+    <t>Il LED rosso sul telecomando lampeggia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assicurarsi che le batterie siano inserite correttamente nel telecomando
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Può sostituire le batterie in questo momento?
+</t>
+  </si>
+  <si>
+    <t>La prego di sostituirli e di richiamarci</t>
+  </si>
+  <si>
+    <t>L'Apple TV è di quarta generazione?</t>
+  </si>
+  <si>
+    <t>È installata l'ultima versione dell'applicazione Salt TV?</t>
+  </si>
+  <si>
+    <t>Provi ad impostare il telecomando Salt TV con la TV normale</t>
+  </si>
+  <si>
+    <t>Il volume del televisore cambia?</t>
+  </si>
+  <si>
+    <t>Quando ha acquistato il telecomando? &lt;N&gt; Più di un anno fa?</t>
+  </si>
+  <si>
+    <t>Vada in un negozio per sostituirlo</t>
+  </si>
+  <si>
+    <t>La garanzia è scaduta. Sembra che il suo telecomando sia difettoso. &lt;N&gt;È necessario acquistarne uno nuovo.</t>
+  </si>
+  <si>
+    <t>La schermata Home dell'Apple TV è visibile sul televisore?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il cavo di alimentazione è collegato correttamente?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il LED bianco (luce di stato) dell'Apple TV è acceso? </t>
+  </si>
+  <si>
+    <t>Verificare il collegamento del cavo HDMI</t>
+  </si>
+  <si>
+    <t>L'Apple TV deve essere riparata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'icona dell'applicazione Salt TV è visibile?  
+</t>
+  </si>
+  <si>
+    <t>Aprire l'Apple Store sull'Apple TV</t>
+  </si>
+  <si>
+    <t>Può vedere Salt TV nello store?</t>
+  </si>
+  <si>
+    <t>È d'accordo di crearne uno?</t>
+  </si>
+  <si>
+    <t>L'Apple ID è un Apple ID svizzero?</t>
+  </si>
+  <si>
+    <t>Ha un Apple ID (account Apple)?</t>
+  </si>
+  <si>
+    <t>È d'accordo di cambiare il paese del suo Apple ID con la Svizzera?</t>
+  </si>
+  <si>
+    <t>Cambiamo il suo paese dell'Apple ID!</t>
+  </si>
+  <si>
+    <t>Scaricare e installare l'applicazione Salt TV</t>
+  </si>
+  <si>
+    <t>Accedere con un account Apple TV svizzero</t>
+  </si>
+  <si>
+    <t>Collegare l'Apple TV al Fiber Box per installare automaticamente Salt TV</t>
+  </si>
+  <si>
+    <t>Ripristinare l'Apple TV</t>
+  </si>
+  <si>
+    <t>Il problema è risolto?</t>
+  </si>
+  <si>
+    <t>Il software dell'Apple TV 4K è aggiornato?</t>
+  </si>
+  <si>
+    <t>Riavviare l'Apple TV</t>
+  </si>
+  <si>
+    <t>Riaprire l'app Salt TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicazione Salt TV è aggiornata all'ultima versione?  </t>
+  </si>
+  <si>
+    <t>Come è collegata l' Apple TV al Fiber Box?</t>
+  </si>
+  <si>
+    <t>Il problema si verifica solo con Salt TV o con altre applicazioni dell'Apple TV?</t>
+  </si>
+  <si>
+    <t>Può provare a collegare l'Apple TV alla rete LAN?</t>
+  </si>
+  <si>
+    <t>C'è un messaggio che invita il cliente a chiamare il servizio clienti?</t>
+  </si>
+  <si>
+    <t>I servizi TV sono attivi in VTI?</t>
+  </si>
+  <si>
+    <t>Verificare in VTI se il cliente dispone di pacchetti base</t>
+  </si>
+  <si>
+    <t>Controllare in VTI se è visibile un eventuale blocco</t>
+  </si>
+  <si>
+    <t>Quale problema incontra?</t>
+  </si>
+  <si>
+    <t>Aprire l'applicazione Salt TV</t>
+  </si>
+  <si>
+    <t>Potete vedere il menu di Salt TV?</t>
+  </si>
+  <si>
+    <t>Con cosa riscontra problemi?</t>
+  </si>
+  <si>
+    <t>I nostri tecnici se ne stanno occupando.</t>
+  </si>
+  <si>
+    <t>Creazione automatica del ticket [541] in SuperOffice</t>
+  </si>
+  <si>
+    <t>Leggere i consigli relativi al WiFi ottimale e inviare un link al cliente.&lt;N&gt;&lt;T&gt;- riavviare regolarmente il Fiber Box per consentire al sistema di rimanere stabile e aggiornato (l'ultimo firmware viene scaricato all'avvio del Fiber Box).&lt;N&gt;&lt;T&gt;- sistemare il Fiber Box in una posizione centrale della casa.&lt;N&gt;&lt;T&gt;- non posizionare il Fiber Box dietro, sotto, sopra o vicino al televisore, contro un oggetto metallico o vicino a un acquario.&lt;N&gt;&lt;T&gt;- posizionare il Fiber Box orizzontalmente e, se possibile, in alto.&lt;N&gt;&lt;T&gt;- utilizzare ripetitori WiFi per coprire le zone lontane dal vostro Fiber Box.</t>
+  </si>
+  <si>
+    <t>Apple TV Siri remote</t>
+  </si>
+  <si>
+    <t>Telecomando Salt TV</t>
+  </si>
+  <si>
+    <t>Visibile</t>
+  </si>
+  <si>
+    <t>Cavo OK</t>
+  </si>
+  <si>
+    <t>Sì, è bianco</t>
+  </si>
+  <si>
+    <t>Collegamento OK</t>
+  </si>
+  <si>
+    <t>Apple ID Svizzero</t>
+  </si>
+  <si>
+    <t>Tutto OK</t>
+  </si>
+  <si>
+    <t>Aggiornato</t>
+  </si>
+  <si>
+    <t>Aggiornata</t>
+  </si>
+  <si>
+    <t>Via LAN</t>
+  </si>
+  <si>
+    <t>Attivi</t>
+  </si>
+  <si>
+    <t>Non può usare il telecomando</t>
+  </si>
+  <si>
+    <t>Sì, c'è un incidente</t>
+  </si>
+  <si>
+    <t>Attualmente è in corso un incidente di Salt TV pubblicato su Qoof?</t>
+  </si>
+  <si>
+    <t>Telecomando</t>
+  </si>
+  <si>
+    <t>Non visibile</t>
+  </si>
+  <si>
+    <t>Nessun Apple ID svizzero</t>
+  </si>
+  <si>
+    <t>Via WiFi</t>
+  </si>
+  <si>
+    <t>Nessun messaggio</t>
+  </si>
+  <si>
+    <t>Problema</t>
   </si>
   <si>
     <t>Nessun incidente</t>
   </si>
   <si>
-    <t>https://qoof.salt.ch/fr/bug/services/salt_tv_known_bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiedere al cliente di verificare sul retro del router. </t>
-  </si>
-  <si>
-    <t>Assicurarsi che l'Apple TV sia collegata alla porta ethernet 1Ghz</t>
-  </si>
-  <si>
-    <t>Collegata a 1Ghz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Scegliere SVIZZERA come paese&lt;N&gt;2. Collegare l'Apple TV al Fiber Box per permettere &lt;Q&gt;Zero sign in&lt;Q&gt;.&lt;N&gt;3. Passare alla tappa di inserimento dell'Apple ID&lt;N&gt;4. Selezionare Salt come operatore TV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collegare l'Apple TV al Fiber Box per installare automaticamente Salt TV </t>
-  </si>
-  <si>
-    <t>Un ticket [541] sarà automaticamente generato al passaggio alla tappa successiva. Non creare un ticket manualmente (SuperOffice). Una copia del contenuto sarà inviata alla tua casella di posta elettronica.</t>
-  </si>
-  <si>
-    <t>Creazione automatica del ticket [541] in SuperOffice.</t>
-  </si>
-  <si>
-    <t>Nel documento Qoof troverete dei tutorial &lt;Q&gt;YouTube&lt;Q&gt; per i clienti con o senza Apple ID.</t>
-  </si>
-  <si>
-    <t>Scaricare e installare l'app Salt TV</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/fr/customer-process/configure/manage_appletv_salttv/salttv/salttv_download_tipps_and_tricks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disponibile nell'App Store alla pagina &lt;Q&gt;Home&lt;Q&gt; </t>
-  </si>
-  <si>
-    <t>Scaricare e installare l'app Speedtest sull'Apple TV&lt;N&gt;E collegarsi alla LAN</t>
-  </si>
-  <si>
-    <t>https://www.speedtest.net/fr/apps/appletv</t>
-  </si>
-  <si>
-    <t>Verificare che il cavo di alimentazione sia ben inserito.&lt;N&gt;Cambiare presa murale se necessario.</t>
-  </si>
-  <si>
-    <t>Il cavo di alimentazione è ben inserito?</t>
-  </si>
-  <si>
-    <t>tv/powercablepluggedin</t>
-  </si>
-  <si>
-    <t>Cavo OK</t>
-  </si>
-  <si>
-    <t>Premere rapidamente due volte sul tasto &lt;Q&gt;Home&lt;Q&gt;&lt;N&gt;Trascinare il dito verso sinistra o destra sulla superficie Touch del telecomando Siri Remote per accedere a Salt TV.&lt;N&gt;Trascinare il dito sulla superficie Touch del telecomando Siri Remote verso l'alto per forzare la chiusura dell'app Salt TV.&lt;N&gt;Premere il tasto Menu per tornare alla schermata &lt;Q&gt;Home&lt;Q&gt; poi riaprire l'app Salt TV.</t>
-  </si>
-  <si>
-    <t>Riaprire l'app Salt TV</t>
-  </si>
-  <si>
-    <t>https://support.apple.com/it-it/guide/tv/atvbbcec4f4e/tvos</t>
-  </si>
-  <si>
-    <t>Andare su: &lt;N&gt;&lt;T&gt;- Impostazioni&lt;N&gt;&lt;T&gt;- Sistema&lt;N&gt;&lt;T&gt;- Riavvia</t>
-  </si>
-  <si>
-    <t>Riavviare l'Apple TV</t>
-  </si>
-  <si>
-    <t>https://support.apple.com/it-it/HT201836</t>
-  </si>
-  <si>
-    <t>Incoraggiare il cliente ad effettuare la registrazione della riparazione online</t>
-  </si>
-  <si>
-    <t>L'Apple TV deve essere riparata</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/fr/customer-process/use_trouble/replacement_and_repair/repair_equipment_fiberbox_tvbox_accessories#salt-fiber-box-acc%C3%A9ssoires-et-apple-tv-4k</t>
-  </si>
-  <si>
-    <t>Andare su: &lt;N&gt;&lt;T&gt;- Impostazioni&lt;N&gt;&lt;T&gt;- Sistema&lt;N&gt;&lt;T&gt;- Ripristina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ripristinare l'Apple TV </t>
-  </si>
-  <si>
-    <t>https://support.apple.com/it-it/HT202118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un AppleID creato selezionando un paese diverso dalla Svizzera non permette di scaricare Salt TV. </t>
-  </si>
-  <si>
-    <t>Il cliente dispone di un Apple ID Svizzera?</t>
-  </si>
-  <si>
-    <t>Apple ID Svizzera</t>
-  </si>
-  <si>
-    <t>Nessun Apple ID Svizzera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La classica schermata di avvio, contenente le icone delle applicazioni preinstallate.&lt;N&gt;(come l'App Store) </t>
-  </si>
-  <si>
-    <t>La schermata di avvio dell'Apple TV è visibile sul televisore?</t>
-  </si>
-  <si>
-    <t>tv/tvhomescreen</t>
-  </si>
-  <si>
-    <t>Visibile</t>
-  </si>
-  <si>
-    <t>Non visibile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immagine a scatti, poco chiara.&lt;N&gt;Qualità di diffusione insoddisfacente. </t>
-  </si>
-  <si>
-    <t>L'immagine è a scatti?</t>
-  </si>
-  <si>
-    <t>tv/jerkyimage</t>
-  </si>
-  <si>
-    <t>A scatti</t>
-  </si>
-  <si>
-    <t>In tal caso, il cliente può essere bloccato</t>
-  </si>
-  <si>
-    <t>C'è un messaggio che invita il cliente a chiamare il servizio clienti?</t>
-  </si>
-  <si>
-    <t>Nessun messaggio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'icona dell'app Salt TV è visibile?  </t>
-  </si>
-  <si>
-    <t>tv/salttvicon</t>
-  </si>
-  <si>
-    <t>Andare su:&lt;N&gt;&lt;T&gt;- VTI -&gt; Gestione dell'abbonamento -&gt; Healthcheck -&gt; TV</t>
-  </si>
-  <si>
-    <t>I servizi TV sono attivi in VTI ?</t>
-  </si>
-  <si>
-    <t>tv/activetvservice</t>
-  </si>
-  <si>
-    <t>Attivi</t>
-  </si>
-  <si>
-    <t>Problema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il cliente conferma che tutti i canali funzionano correttamente? </t>
-  </si>
-  <si>
-    <t>Il problema è risolto?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutto OK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qual è il tipo di connessione del cliente? </t>
-  </si>
-  <si>
-    <t>Com'è collegata l'Apple TV al Fiber Box ?</t>
-  </si>
-  <si>
-    <t>Se l'alimentazione è corretta, il LED è stabile e bianco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il LED bianco (luce di stato) dell'Apple TV è acceso? </t>
-  </si>
-  <si>
-    <t>tv/statusled</t>
-  </si>
-  <si>
-    <t>Sì, bianco</t>
-  </si>
-  <si>
-    <t>https://support.apple.com/it-it/guide/tv/atvba38a4135/tvos</t>
-  </si>
-  <si>
-    <t>Aprire l'app Salt TV</t>
-  </si>
-  <si>
-    <t>Effettuare il login con un account AppleTV Svizzera</t>
-  </si>
-  <si>
-    <t>Connecter l'AppleTV an LAN</t>
-  </si>
-  <si>
-    <t>&lt;N&gt;&lt;T&gt;- Controllare il conto del cliente per verificare lo stato&lt;N&gt;&lt;T&gt;- Controllare se ci sono ticket aperti per questo caso&lt;N&gt;&lt;T&gt;- Controllare se ci sono problemi tecnici in sospeso che potrebbero essere all'origine del problema"</t>
-  </si>
-  <si>
-    <t>general/feedbacks</t>
-  </si>
-  <si>
-    <t>vti/IsBoxReachable_it</t>
-  </si>
-  <si>
-    <t>In una normale sequenza di avvio, i primi 3 LED lampeggiano uno ad uno partendo da sinistra e poi diventano verdi e stabili&lt;N&gt;1. Power &lt;N&gt;2. Fiber &lt;N&gt;3. WWW&lt;N&gt;&lt;N&gt;Sequenze anomale dei LED:&lt;N&gt;Il riavvio ricomincia invece di continuare&lt;N&gt;LED Fiber che lampeggia in rosso/verde&lt;N&gt;LED WWW spento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	La sequenza di avvio era anomala?		Anomala	WWW spento/Fiber lampeggia	Tutto normale	https://qoof.salt.ch/de/knowledge/technical/modem_router/boot_led_sequence#startphase</t>
-  </si>
-  <si>
-    <t>Chiedere al cliente di fare/utilizzare/ricominciare di nuovo ciò che lo ha portato a chiamarci&lt;N&gt;&lt;T&gt;- Blocco app streaming&lt;N&gt;&lt;T&gt;- Caricamento lungo della pagina&lt;N&gt;&lt;T&gt;- Ecc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Testiamo ora se si verificano gli stessi problemi di funzionamento					</t>
-  </si>
-  <si>
-    <t>Ora proviamo a vedere se funziona su WiFi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		Ok, andiamo	No, non può		</t>
-  </si>
-  <si>
-    <t>_ActivateTVServicesVTI</t>
-  </si>
-  <si>
-    <t>_CheckHDMIcnx</t>
-  </si>
-  <si>
-    <t>_CheckIfAppNeedsUpdate</t>
-  </si>
-  <si>
-    <t>_CheckIfSaltTVNeedsUpdate</t>
-  </si>
-  <si>
-    <t>_ChekSaltTVKNownBugs</t>
-  </si>
-  <si>
-    <t>_ConnectAppleTVtoOneGhz</t>
-  </si>
-  <si>
-    <t>_CreateAppleIDorBypass</t>
-  </si>
-  <si>
-    <t>_CreateSOTicketSaltTV</t>
-  </si>
-  <si>
-    <t>_InstallSaltTV</t>
-  </si>
-  <si>
-    <t>_InstallSpeedTestAplleTV</t>
-  </si>
-  <si>
-    <t>_MakeSurePowerCableWellPlugged</t>
-  </si>
-  <si>
-    <t>_QuitAndRelaunchSaltTV</t>
-  </si>
-  <si>
-    <t>_RebootAppleTV</t>
-  </si>
-  <si>
-    <t>_RepairProcess</t>
-  </si>
-  <si>
-    <t>_ResetAppleTV</t>
-  </si>
-  <si>
-    <t>HasAppleAccount</t>
-  </si>
-  <si>
-    <t>IsAppleTVvisibleOnTVScreen</t>
-  </si>
-  <si>
-    <t>IsImageJerky</t>
-  </si>
-  <si>
-    <t>IsMessageInvitingToContactCC</t>
-  </si>
-  <si>
-    <t>IsSaltIconVisibleOnAppleTV</t>
-  </si>
-  <si>
-    <t>IsTVServicesActiveVTI</t>
-  </si>
-  <si>
-    <t>ProblemSolved</t>
-  </si>
-  <si>
-    <t>WhatAppleTVcnxType</t>
-  </si>
-  <si>
-    <t>WhiteLightLids</t>
-  </si>
-  <si>
-    <t>_OpenSaltTVApp</t>
-  </si>
-  <si>
-    <t>_LogInWithSwissAppleID</t>
-  </si>
-  <si>
-    <t>_ConnectAppleTVtoTheLAN</t>
+    <t>Suono</t>
+  </si>
+  <si>
+    <t>Il suono è disturbato</t>
+  </si>
+  <si>
+    <t>Non può vedere la TV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2544,10 +2839,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2561,8 +2857,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2583,7 +2895,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="salttv_it" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="salttv_en" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2881,24 +3193,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +3236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +3250,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2952,7 +3264,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2968,7 +3280,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2980,7 +3292,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2996,7 +3308,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3020,7 +3332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -3036,7 +3348,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3054,7 +3366,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3074,7 +3386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
@@ -3098,7 +3410,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -3120,7 +3432,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
@@ -3142,7 +3454,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -3158,12 +3470,12 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>732</v>
+      <c r="B15" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>62</v>
@@ -3173,57 +3485,22 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3232,490 +3509,1065 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" customWidth="1"/>
+    <col min="3" max="4" width="48.88671875" customWidth="1"/>
+    <col min="5" max="8" width="35.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B13" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B19" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>744</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="E5" t="s">
-        <v>657</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>745</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B24" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B26" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E26" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>746</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B27" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E27" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="D7" t="s">
-        <v>566</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B28" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>747</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E28" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>748</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B29" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E29" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>749</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B30" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>750</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E31" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="H11" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>751</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B33" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B35" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B36" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>752</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B37" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="H13" t="s">
+      <c r="B38" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>753</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B39" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="H14" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>754</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B41" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B42" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>755</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B43" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="H16" t="s">
+      <c r="B44" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>756</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B45" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="E17" t="s">
+      <c r="B46" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>757</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B47" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E47" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B48" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>758</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B51" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B52" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E52" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="F19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>759</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="E20" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B55" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>760</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B57" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="E21" t="s">
-        <v>703</v>
-      </c>
-      <c r="F21" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>761</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="E22" t="s">
+      <c r="B60" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="F22" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>762</v>
-      </c>
-      <c r="B23" t="s">
-        <v>719</v>
-      </c>
-      <c r="C23" t="s">
-        <v>720</v>
-      </c>
-      <c r="E23" t="s">
-        <v>721</v>
-      </c>
-      <c r="F23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>763</v>
-      </c>
-      <c r="B24" t="s">
-        <v>722</v>
-      </c>
-      <c r="C24" t="s">
-        <v>723</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>764</v>
-      </c>
-      <c r="B25" t="s">
-        <v>724</v>
-      </c>
-      <c r="C25" t="s">
-        <v>725</v>
-      </c>
-      <c r="D25" t="s">
-        <v>726</v>
-      </c>
-      <c r="E25" t="s">
-        <v>727</v>
-      </c>
-      <c r="F25" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>765</v>
-      </c>
-      <c r="C26" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>766</v>
-      </c>
-      <c r="C27" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>767</v>
-      </c>
-      <c r="C28" t="s">
-        <v>731</v>
-      </c>
+      <c r="B61" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1"/>
+    <hyperlink ref="H19" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3727,19 +4579,19 @@
       <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="45.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="81.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3765,7 +4617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -3776,7 +4628,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -3787,7 +4639,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
@@ -3804,7 +4656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
@@ -3818,7 +4670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
@@ -3832,7 +4684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
@@ -3846,7 +4698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>87</v>
       </c>
@@ -3857,7 +4709,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
@@ -3868,7 +4720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
@@ -3899,19 +4751,19 @@
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +4789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -3945,7 +4797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -3959,7 +4811,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -3970,7 +4822,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -3981,7 +4833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -3995,7 +4847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -4009,7 +4861,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -4026,7 +4878,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -4037,7 +4889,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -4045,7 +4897,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -4062,7 +4914,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -4076,7 +4928,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -4093,7 +4945,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -4107,7 +4959,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -4121,7 +4973,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -4138,7 +4990,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -4157,19 +5009,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4195,7 +5047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -4209,7 +5061,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -4220,7 +5072,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -4231,7 +5083,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -4245,7 +5097,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -4259,7 +5111,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>175</v>
       </c>
@@ -4267,7 +5119,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -4278,7 +5130,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -4286,7 +5138,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -4294,7 +5146,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -4305,7 +5157,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -4316,7 +5168,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -4324,7 +5176,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -4332,7 +5184,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -4346,7 +5198,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -4360,7 +5212,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>202</v>
       </c>
@@ -4380,7 +5232,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4388,7 +5240,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -4396,7 +5248,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -4407,7 +5259,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -4421,7 +5273,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -4441,7 +5293,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>223</v>
       </c>
@@ -4455,7 +5307,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>227</v>
       </c>
@@ -4480,18 +5332,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4517,7 +5369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -4531,7 +5383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -4548,7 +5400,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>237</v>
       </c>
@@ -4559,7 +5411,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -4576,7 +5428,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -4587,7 +5439,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -4598,7 +5450,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -4606,7 +5458,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>253</v>
       </c>
@@ -4620,7 +5472,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -4634,7 +5486,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -4651,7 +5503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -4668,7 +5520,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -4685,7 +5537,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>273</v>
       </c>
@@ -4696,7 +5548,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>276</v>
       </c>
@@ -4707,7 +5559,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>279</v>
       </c>
@@ -4721,7 +5573,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -4735,7 +5587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>284</v>
       </c>
@@ -4759,26 +5611,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="45.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4804,7 +5656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>289</v>
       </c>
@@ -4818,7 +5670,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>293</v>
       </c>
@@ -4832,7 +5684,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>297</v>
       </c>
@@ -4843,7 +5695,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>300</v>
       </c>
@@ -4854,7 +5706,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>303</v>
       </c>
@@ -4871,18 +5723,18 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>309</v>
       </c>
@@ -4896,7 +5748,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>313</v>
       </c>
@@ -4907,7 +5759,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>316</v>
       </c>
@@ -4921,7 +5773,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>320</v>
       </c>
@@ -4938,7 +5790,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>325</v>
       </c>
@@ -4949,7 +5801,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>328</v>
       </c>
@@ -4963,7 +5815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>330</v>
       </c>
@@ -4977,7 +5829,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>334</v>
       </c>
@@ -4985,7 +5837,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>458</v>
       </c>
@@ -4999,23 +5851,6 @@
         <v>461</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G17" s="3" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5026,23 +5861,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A1:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5068,7 +5904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>336</v>
       </c>
@@ -5086,7 +5922,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>340</v>
       </c>
@@ -5100,7 +5936,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>342</v>
       </c>
@@ -5120,7 +5956,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>345</v>
       </c>
@@ -5140,7 +5976,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>350</v>
       </c>
@@ -5154,27 +5990,27 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>353</v>
       </c>
@@ -5190,7 +6026,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>356</v>
       </c>
@@ -5208,7 +6044,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>360</v>
       </c>
@@ -5226,7 +6062,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>364</v>
       </c>
@@ -5248,7 +6084,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>368</v>
       </c>
@@ -5264,7 +6100,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>371</v>
       </c>
@@ -5284,7 +6120,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>376</v>
       </c>
@@ -5298,7 +6134,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>378</v>
       </c>
@@ -5314,7 +6150,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>381</v>
       </c>
@@ -5332,7 +6168,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>385</v>
       </c>
@@ -5346,7 +6182,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>387</v>
       </c>
@@ -5370,7 +6206,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>394</v>
       </c>
@@ -5394,7 +6230,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>401</v>
       </c>
@@ -5414,7 +6250,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>406</v>
       </c>
@@ -5436,7 +6272,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>411</v>
       </c>
@@ -5454,7 +6290,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>415</v>
       </c>
@@ -5470,7 +6306,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>418</v>
       </c>
@@ -5488,7 +6324,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>422</v>
       </c>
@@ -5504,7 +6340,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>425</v>
       </c>
@@ -5530,7 +6366,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>433</v>
       </c>
@@ -5546,7 +6382,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>434</v>
       </c>
@@ -5566,7 +6402,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>438</v>
       </c>
@@ -5586,7 +6422,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>439</v>
       </c>
@@ -5604,7 +6440,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>443</v>
       </c>
@@ -5618,7 +6454,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>445</v>
       </c>
@@ -5632,7 +6468,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>447</v>
       </c>
@@ -5654,7 +6490,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>453</v>
       </c>
@@ -5670,7 +6506,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>462</v>
       </c>
@@ -5679,76 +6515,34 @@
         <v>463</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>734</v>
+        <v>464</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C36" s="3"/>
+      <c r="B36" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>467</v>
+      </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>471</v>
       </c>
     </row>
@@ -5759,24 +6553,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:H23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5802,7 +6597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>472</v>
       </c>
@@ -5814,7 +6609,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>473</v>
       </c>
@@ -5832,7 +6627,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>477</v>
       </c>
@@ -5848,7 +6643,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>480</v>
       </c>
@@ -5862,7 +6657,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>482</v>
       </c>
@@ -5882,13 +6677,13 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -5896,7 +6691,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>488</v>
       </c>
@@ -5910,7 +6705,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>490</v>
       </c>
@@ -5930,7 +6725,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>495</v>
       </c>
@@ -5948,7 +6743,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>499</v>
       </c>
@@ -5966,7 +6761,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>503</v>
       </c>
@@ -5982,7 +6777,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>506</v>
       </c>
@@ -5998,7 +6793,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>509</v>
       </c>
@@ -6016,7 +6811,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>513</v>
       </c>
@@ -6034,7 +6829,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>517</v>
       </c>
@@ -6052,7 +6847,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>521</v>
       </c>
@@ -6068,7 +6863,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>524</v>
       </c>
@@ -6082,7 +6877,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>526</v>
       </c>
@@ -6104,7 +6899,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>532</v>
       </c>
@@ -6120,15 +6915,15 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -6136,103 +6931,39 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="H27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6241,25 +6972,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:H30"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6285,9 +7016,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>379</v>
@@ -6299,19 +7030,19 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -6319,15 +7050,15 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -6335,48 +7066,48 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>456</v>
@@ -6389,47 +7120,49 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>558</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>742</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -6437,15 +7170,15 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -6453,31 +7186,31 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -6485,49 +7218,49 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -6535,13 +7268,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -6549,15 +7282,15 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -6565,49 +7298,49 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -6615,13 +7348,13 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -6629,199 +7362,180 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>608</v>
+        <v>725</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>726</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>612</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>616</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>727</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>621</v>
+        <v>728</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>730</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C30" s="3" t="s">
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="F31" s="1" t="s">
+        <v>741</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
